--- a/MedicalLink/Templates/So_ThuThuatLamSang_CacKhoa.xlsx
+++ b/MedicalLink/Templates/So_ThuThuatLamSang_CacKhoa.xlsx
@@ -128,9 +128,6 @@
     <t>&amp;=[DATA].DEPARTMENTGROUPNAME</t>
   </si>
   <si>
-    <t>BÁO CÁO THỦ THUẬT CÁC KHOA</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].SOYTE</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].PTTT_PHUONGPHAPVOCAM</t>
+  </si>
+  <si>
+    <t>SỔ THỦ THUẬT</t>
   </si>
 </sst>
 </file>
@@ -392,18 +392,39 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,27 +433,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -724,7 +724,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E2" sqref="E2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,117 +745,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="17" t="s">
+      <c r="A1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="18" t="s">
+      <c r="A2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="6" spans="1:15" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="25"/>
+      <c r="I6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="13" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="27"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -886,7 +886,7 @@
         <v>27</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>28</v>
@@ -903,14 +903,23 @@
       <c r="O8" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="L11:N11"/>
@@ -921,15 +930,6 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
